--- a/xlsx/organisation-identifier-type.xlsx
+++ b/xlsx/organisation-identifier-type.xlsx
@@ -71,10 +71,10 @@
     <t xml:space="preserve">06</t>
   </si>
   <si>
-    <t xml:space="preserve">Ringold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ringold identifier for organisations in the publishing industry supply chain</t>
+    <t xml:space="preserve">Ringgold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ringgold identifier for organisations in the publishing industry supply chain</t>
   </si>
   <si>
     <t xml:space="preserve">07</t>

--- a/xlsx/organisation-identifier-type.xlsx
+++ b/xlsx/organisation-identifier-type.xlsx
@@ -71,10 +71,10 @@
     <t xml:space="preserve">06</t>
   </si>
   <si>
-    <t xml:space="preserve">Ringgold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ringgold identifier for organisations in the publishing industry supply chain</t>
+    <t xml:space="preserve">Ringold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ringold identifier for organisations in the publishing industry supply chain</t>
   </si>
   <si>
     <t xml:space="preserve">07</t>

--- a/xlsx/organisation-identifier-type.xlsx
+++ b/xlsx/organisation-identifier-type.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -21,6 +24,9 @@
   </si>
   <si>
     <t xml:space="preserve">Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
   </si>
   <si>
     <t xml:space="preserve">01</t>
@@ -431,7 +437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -443,104 +449,134 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/organisation-identifier-type.xlsx
+++ b/xlsx/organisation-identifier-type.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t xml:space="preserve">Global Research Identifier Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUMIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier for educational providers registered with the Ministry of Education's Education Management Information System (EDUMIS)</t>
   </si>
   <si>
     <t xml:space="preserve">99</t>
@@ -579,6 +588,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
